--- a/election_votar_data/LOHAGARA/CHUNATI/152616/152616_com_1299_male_without_photo_74_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152616/152616_com_1299_male_without_photo_74_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="39.5" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="41.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F132" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:০৮/০৩/১৯৮৪</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G132" s="3" t="inlineStr">
@@ -9009,7 +9009,7 @@
       </c>
       <c r="F204" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৬/১২/২০০৬</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G204" s="3" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৭/০৯/২০০৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G211" s="3" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="F224" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:৩০/১০/২০০৬</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G224" s="3" t="inlineStr">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="F227" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১১/০৯/২০০৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G227" s="3" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="F257" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৮/০২/২০০৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G257" s="3" t="inlineStr">
@@ -17913,7 +17913,7 @@
       </c>
       <c r="F416" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ২৮/০৩/২০০৭</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G416" s="3" t="inlineStr">
@@ -19299,7 +19299,7 @@
       </c>
       <c r="F449" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৫/০২/২০০৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G449" s="3" t="inlineStr">
@@ -19341,7 +19341,7 @@
       </c>
       <c r="F450" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২১/১০/২০০৬</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G450" s="3" t="inlineStr">
@@ -21399,7 +21399,7 @@
       </c>
       <c r="F499" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:২২/১২/১৯৬২</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G499" s="3" t="inlineStr">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="F589" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০৩/০৫/১৯৭২</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G589" s="3" t="inlineStr">
@@ -25893,7 +25893,7 @@
       </c>
       <c r="F606" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৬/০১/২০০৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G606" s="3" t="inlineStr">
@@ -28329,7 +28329,7 @@
       </c>
       <c r="F664" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০২/০৩/২০০৬</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G664" s="3" t="inlineStr">
@@ -37947,7 +37947,7 @@
       </c>
       <c r="F893" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০২/০৩/২০০৬</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G893" s="3" t="inlineStr">
@@ -38031,7 +38031,7 @@
       </c>
       <c r="F895" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১১/০৯/২০০৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G895" s="3" t="inlineStr">
@@ -38073,7 +38073,7 @@
       </c>
       <c r="F896" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:২৯/০৪/২০০৫</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G896" s="3" t="inlineStr">
@@ -38115,7 +38115,7 @@
       </c>
       <c r="F897" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৭/০৯/২০০৩</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G897" s="3" t="inlineStr">
@@ -38157,7 +38157,7 @@
       </c>
       <c r="F898" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৪/০৩/২০০৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G898" s="3" t="inlineStr">
@@ -38199,7 +38199,7 @@
       </c>
       <c r="F899" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:২০/০১/২০০৫</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G899" s="3" t="inlineStr">
@@ -50757,7 +50757,7 @@
       </c>
       <c r="F1198" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:৩১/১০/২০০৬</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1198" s="3" t="inlineStr">
@@ -51891,7 +51891,7 @@
       </c>
       <c r="F1225" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০১/০২/২০০৫</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1225" s="3" t="inlineStr">
@@ -53445,7 +53445,7 @@
       </c>
       <c r="F1262" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১০/০৮/২০০৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1262" s="3" t="inlineStr">
@@ -54999,7 +54999,7 @@
       </c>
       <c r="F1299" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ১০/১০/১৯৯০</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1299" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHUNATI/152616/152616_com_1299_male_without_photo_74_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152616/152616_com_1299_male_without_photo_74_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="39.5" customWidth="1" min="5" max="5"/>
-    <col width="41.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F132" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:০৮/০৩/১৯৮৪</t>
         </is>
       </c>
       <c r="G132" s="3" t="inlineStr">
@@ -9009,7 +9009,7 @@
       </c>
       <c r="F204" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৬/১২/২০০৬</t>
         </is>
       </c>
       <c r="G204" s="3" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৭/০৯/২০০৫</t>
         </is>
       </c>
       <c r="G211" s="3" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="F224" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:৩০/১০/২০০৬</t>
         </is>
       </c>
       <c r="G224" s="3" t="inlineStr">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="F227" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১১/০৯/২০০৫</t>
         </is>
       </c>
       <c r="G227" s="3" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="F257" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৮/০২/২০০৫</t>
         </is>
       </c>
       <c r="G257" s="3" t="inlineStr">
@@ -17913,7 +17913,7 @@
       </c>
       <c r="F416" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ২৮/০৩/২০০৭</t>
         </is>
       </c>
       <c r="G416" s="3" t="inlineStr">
@@ -19299,7 +19299,7 @@
       </c>
       <c r="F449" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৫/০২/২০০৫</t>
         </is>
       </c>
       <c r="G449" s="3" t="inlineStr">
@@ -19341,7 +19341,7 @@
       </c>
       <c r="F450" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২১/১০/২০০৬</t>
         </is>
       </c>
       <c r="G450" s="3" t="inlineStr">
@@ -21399,7 +21399,7 @@
       </c>
       <c r="F499" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:২২/১২/১৯৬২</t>
         </is>
       </c>
       <c r="G499" s="3" t="inlineStr">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="F589" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০৩/০৫/১৯৭২</t>
         </is>
       </c>
       <c r="G589" s="3" t="inlineStr">
@@ -25893,7 +25893,7 @@
       </c>
       <c r="F606" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৬/০১/২০০৫</t>
         </is>
       </c>
       <c r="G606" s="3" t="inlineStr">
@@ -28329,7 +28329,7 @@
       </c>
       <c r="F664" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০২/০৩/২০০৬</t>
         </is>
       </c>
       <c r="G664" s="3" t="inlineStr">
@@ -37947,7 +37947,7 @@
       </c>
       <c r="F893" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০২/০৩/২০০৬</t>
         </is>
       </c>
       <c r="G893" s="3" t="inlineStr">
@@ -38031,7 +38031,7 @@
       </c>
       <c r="F895" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১১/০৯/২০০৫</t>
         </is>
       </c>
       <c r="G895" s="3" t="inlineStr">
@@ -38073,7 +38073,7 @@
       </c>
       <c r="F896" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:২৯/০৪/২০০৫</t>
         </is>
       </c>
       <c r="G896" s="3" t="inlineStr">
@@ -38115,7 +38115,7 @@
       </c>
       <c r="F897" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৭/০৯/২০০৩</t>
         </is>
       </c>
       <c r="G897" s="3" t="inlineStr">
@@ -38157,7 +38157,7 @@
       </c>
       <c r="F898" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৪/০৩/২০০৫</t>
         </is>
       </c>
       <c r="G898" s="3" t="inlineStr">
@@ -38199,7 +38199,7 @@
       </c>
       <c r="F899" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:২০/০১/২০০৫</t>
         </is>
       </c>
       <c r="G899" s="3" t="inlineStr">
@@ -50757,7 +50757,7 @@
       </c>
       <c r="F1198" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:৩১/১০/২০০৬</t>
         </is>
       </c>
       <c r="G1198" s="3" t="inlineStr">
@@ -51891,7 +51891,7 @@
       </c>
       <c r="F1225" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০১/০২/২০০৫</t>
         </is>
       </c>
       <c r="G1225" s="3" t="inlineStr">
@@ -53445,7 +53445,7 @@
       </c>
       <c r="F1262" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১০/০৮/২০০৫</t>
         </is>
       </c>
       <c r="G1262" s="3" t="inlineStr">
@@ -54999,7 +54999,7 @@
       </c>
       <c r="F1299" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১০/১০/১৯৯০</t>
         </is>
       </c>
       <c r="G1299" s="3" t="inlineStr">
